--- a/biology/Botanique/Scytothamnaceae/Scytothamnaceae.xlsx
+++ b/biology/Botanique/Scytothamnaceae/Scytothamnaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Scytothamnaceae sont une famille d’algues brunes de l’ordre des Scytothamnales. 
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Scytothamnus, dérivé des mots grecs σκῦτος / skýtos, «  lanière de cuir ; fouet », et θάμνος / thamnos, « buisson ; herbe », littéralement « herbe à fouet ».
 </t>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2014, à la suite d'analyses génétiques, des algologues français ont proposé de réunir les trois genres Scytothamnus (en), Stereocladon (d) et Splachnidium (d) dans la seule famille des Splachnidiaceae[3], rendant de fait obsolète la famille de Scytothamnaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, à la suite d'analyses génétiques, des algologues français ont proposé de réunir les trois genres Scytothamnus (en), Stereocladon (d) et Splachnidium (d) dans la seule famille des Splachnidiaceae, rendant de fait obsolète la famille de Scytothamnaceae.
 </t>
         </is>
       </c>
@@ -573,13 +589,15 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (25 août 2017)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (25 août 2017) :
 Scytothamnus (en) J.D.Hooker &amp; Harvey, 1845
 Stereocladon (d) J.D.Hooker &amp; Harvey, 1845
 Stereothalia (d) V.B.A.Trevisan, 1849 : synonyme de Stereocladon
-Selon World Register of Marine Species                               (20 décembre 2021)[5] :
+Selon World Register of Marine Species                               (20 décembre 2021) :
 genre Stereocladon J.D.Hooker &amp; Harvey, 1845
 genre Stereothalia V.B.A.Trevisan, 1849 : synonyme de Stereocladon</t>
         </is>
